--- a/module_review.xlsx
+++ b/module_review.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>heat_1_1\Latent Heat of Melting Conversion</t>
+          <t>medley_1_1\Rate of Acceleration Calculation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -471,14 +471,14 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>heat_1_2\Temperature Conversion</t>
+          <t>medley_1_1\Truck Acceleration Problem</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -486,14 +486,14 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>heat_1_3\Conversion of Temperature</t>
+          <t>medley_1_1\TruckResultingSpeed</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -501,14 +501,14 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>heat_1_4\Temperature Conversion Question</t>
+          <t>medley_1_15_20\Resultant of Two Forces and Shear Stress Calculation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -516,14 +516,14 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>medley_1_1\Rate of Acceleration Calculation</t>
+          <t>medley_1_2\Truck Downslope Speed Calculation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -531,14 +531,14 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>medley_1_1\Truck Acceleration Problem</t>
+          <t>medley_1_2\Truck on Downslope Problem</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -546,14 +546,14 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>medley_1_1\TruckResultingSpeed</t>
+          <t>medley_1_2\Truck Speed Calculation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -561,14 +561,14 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>medley_1_15_20\Resultant of Two Forces and Shear Stress Calculation</t>
+          <t>medley_1_2\Truck Weight Calculation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -576,14 +576,14 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>medley_1_2\Truck Downslope Speed Calculation</t>
+          <t>medley_1_20\Determination of Kinematic Viscosity</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -591,14 +591,14 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>medley_1_2\Truck on Downslope Problem</t>
+          <t>medley_1_20\Force Required to Maintain Steady Speed</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -606,14 +606,14 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>medley_1_2\Truck Speed Calculation</t>
+          <t>medley_1_20\Forces and Shear Stress Calculation</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -621,14 +621,14 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>medley_1_2\Truck Weight Calculation</t>
+          <t>medley_1_20\Plate Dimensions Calculation</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -636,14 +636,14 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>medley_1_20\Determination of Kinematic Viscosity</t>
+          <t>medley_1_20\Plate Dragging and Space Calculation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -651,14 +651,14 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>medley_1_20\Force Required to Maintain Steady Speed</t>
+          <t>medley_1_20\Plate Dragging Force and Steady Speed Calculation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -666,14 +666,14 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>medley_1_20\Forces and Shear Stress Calculation</t>
+          <t>medley_1_20\Specific Gravity Calculation</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -681,14 +681,14 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>medley_1_20\Plate Dimensions Calculation</t>
+          <t>medley_1_23\Tensile Testing Question</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -696,14 +696,14 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>medley_1_20\Plate Dragging and Space Calculation</t>
+          <t>medley_1_24\Material Compressive Strength vs Tensile Strength</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -711,14 +711,14 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>medley_1_20\Plate Dragging Force and Steady Speed Calculation</t>
+          <t>medley_1_25\Which of the following is true of water</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -726,14 +726,14 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>medley_1_20\Specific Gravity Calculation</t>
+          <t>medley_1_3\Braking Force Calculation</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -741,14 +741,14 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>medley_1_23\Tensile Testing Question</t>
+          <t>medley_1_3\Stopping Distance Calculation for a Truck</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -756,14 +756,14 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>medley_1_24\Material Compressive Strength vs Tensile Strength</t>
+          <t>medley_1_3\Truck Braking Force Calculation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -771,14 +771,14 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>medley_1_25\Which of the following is true of water</t>
+          <t>medley_1_3\Truck Initial Speed Calculation</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -786,14 +786,14 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>medley_1_3\Braking Force Calculation</t>
+          <t>medley_1_4\Determining Initial Speed of a Truck</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -801,14 +801,14 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>medley_1_3\Stopping Distance Calculation for a Truck</t>
+          <t>medley_1_4\Stopping Distance Calculation for a Truck</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -816,14 +816,14 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>medley_1_3\Truck Braking Force Calculation</t>
+          <t>medley_1_4\Truck Braking Energy Calculation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -831,14 +831,14 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>medley_1_3\Truck Initial Speed Calculation</t>
+          <t>medley_1_4\Truck Weight Calculation</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -846,14 +846,14 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>medley_1_4\Determining Initial Speed of a Truck</t>
+          <t>medley_1_5\Stopping Distance Calculation for a Truck</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -861,14 +861,14 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>medley_1_4\Stopping Distance Calculation for a Truck</t>
+          <t>medley_1_5\Truck Brake Drum Diameter Calculation</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -876,14 +876,14 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>medley_1_4\Truck Braking Energy Calculation</t>
+          <t>medley_1_5\Truck Brake Torque Calculation</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -891,14 +891,14 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>medley_1_4\Truck Weight Calculation</t>
+          <t>medley_1_5\Truck Braking and Weight Calculation</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -906,14 +906,14 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>medley_1_5\Stopping Distance Calculation for a Truck</t>
+          <t>medley_1_5\Truck Braking Speed Calculation</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -921,14 +921,14 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>medley_1_5\Truck Brake Drum Diameter Calculation</t>
+          <t>medley_1_5\Truck Braking System Analysis</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -936,14 +936,14 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>medley_1_5\Truck Brake Torque Calculation</t>
+          <t>medley_1_6\Specific Heat Calculation for Brake Material</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -951,14 +951,14 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>medley_1_5\Truck Braking and Weight Calculation</t>
+          <t>medley_1_6\Stopping Distance Calculation for a Truck</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -966,14 +966,14 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>medley_1_5\Truck Braking Speed Calculation</t>
+          <t>medley_1_6\Truck Braking Speed Calculation</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -981,14 +981,14 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>medley_1_5\Truck Braking System Analysis</t>
+          <t>medley_1_6\Truck Braking System Analysis</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -996,14 +996,14 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>medley_1_6\Specific Heat Calculation for Brake Material</t>
+          <t>medley_1_6\Truck Braking Temperature Increase Calculation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1011,14 +1011,14 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>medley_1_6\Stopping Distance Calculation for a Truck</t>
+          <t>medley_1_6\Weight of a Truck Calculation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1026,14 +1026,14 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>medley_1_6\Truck Braking Speed Calculation</t>
+          <t>medley_1_7\Maximum Height of Steel Drum in Water</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1041,14 +1041,14 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>medley_1_6\Truck Braking System Analysis</t>
+          <t>medley_1_7\Maximum Outside Diameter of a Sealed Hollow Steel Drum</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1056,14 +1056,14 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>medley_1_6\Truck Braking Temperature Increase Calculation</t>
+          <t>medley_1_7\Maximum Thickness of Steel Drum</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1071,14 +1071,14 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>medley_1_6\Weight of a Truck Calculation</t>
+          <t>medley_1_7\Specific Gravity Calculation for Hollow Drum</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1086,14 +1086,14 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>medley_1_7\Maximum Height of Steel Drum in Water</t>
+          <t>medley_1_9_14\Inclined Plane and Friction</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1101,14 +1101,14 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>medley_1_7\Maximum Outside Diameter of a Sealed Hollow Steel Drum</t>
+          <t>preclass_4_(Review)\Angle of Plane During Takeoff</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1116,14 +1116,14 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>medley_1_7\Maximum Thickness of Steel Drum</t>
+          <t>preclass_4_(Review)\Determine the initial velocity of a vehicle</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1131,14 +1131,14 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>medley_1_7\Specific Gravity Calculation for Hollow Drum</t>
+          <t>preclass_4_(Review)\Determining Final Velocity</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1146,14 +1146,14 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>medley_1_9_14\Inclined Plane and Friction</t>
+          <t>preclass_4_(Review)\Determining the mass of a pilot in a plane pulling a dive</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1161,14 +1161,14 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>medley_2_1_2\Average Power Calculation for Tower Crane</t>
+          <t>preclass_4_(Review)\Determining the mass of a vehicle</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1176,14 +1176,14 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>medley_2_3\Average Speed of Tower Crane Weight</t>
+          <t>preclass_4_(Review)\Equivalent Mass and Weight</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1191,14 +1191,14 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>medley_2_4_5\Tower Crane Cable Analysis</t>
+          <t>preclass_4_(Review)\Height of Cliff Calculation</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1206,14 +1206,14 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>medley_2_6_8\Tower Crane Weight Lifting Problem</t>
+          <t>preclass_4_(Review)\Net Force Calculation in a Diving Plane</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1221,14 +1221,14 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>medley_2_9_14\Tower Crane Weight Lifting Problem</t>
+          <t>preclass_4_(Review)\Speed of Car Going Off Cliff</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1236,14 +1236,14 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>preclass_4_(Review)\Angle of Plane During Takeoff</t>
+          <t>preclass_4_(Review)\Time Required for Uniform Acceleration</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1251,172 +1251,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>preclass_4_(Review)\Determine the initial velocity of a vehicle</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>preclass_4_(Review)\Determining Final Velocity</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>preclass_4_(Review)\Determining the mass of a pilot in a plane pulling a dive</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>preclass_4_(Review)\Determining the mass of a vehicle</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>preclass_4_(Review)\Equivalent Mass and Weight</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>preclass_4_(Review)\Height of Cliff Calculation</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>preclass_4_(Review)\Net Force Calculation in a Diving Plane</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>preclass_4_(Review)\Speed of Car Going Off Cliff</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>preclass_4_(Review)\Time Required for Uniform Acceleration</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>showcase\Diameter of Wire Calculation</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>showcase\Rotating Lawn Sprinkler Water Speed</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
